--- a/public/excel/templates/结对学生导入模板.xlsx
+++ b/public/excel/templates/结对学生导入模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="-22600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-11800" yWindow="-28340" windowWidth="51200" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="孩子名单" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
@@ -662,6 +662,9 @@
       <t>ban'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生介绍</t>
   </si>
 </sst>
 </file>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1025,7 +1028,7 @@
     <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1106,6 +1109,9 @@
       </c>
       <c r="AA1" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
